--- a/PesquisaOperacional.Gurobi.Core/Data/output.xlsx
+++ b/PesquisaOperacional.Gurobi.Core/Data/output.xlsx
@@ -154,22 +154,22 @@
         <v>7</v>
       </c>
       <c r="B2" s="0">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="C2" s="0">
         <v>20</v>
       </c>
       <c r="D2" s="0">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0">
+        <v>18</v>
+      </c>
+      <c r="F2" s="0">
         <v>30</v>
       </c>
-      <c r="E2" s="0">
-        <v>40</v>
-      </c>
-      <c r="F2" s="0">
-        <v>50</v>
-      </c>
       <c r="G2" s="0">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -177,22 +177,22 @@
         <v>8</v>
       </c>
       <c r="B3" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="0">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D3" s="0">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E3" s="0">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="F3" s="0">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="G3" s="0">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -200,22 +200,22 @@
         <v>9</v>
       </c>
       <c r="B4" s="0">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D4" s="0">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E4" s="0">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G4" s="0">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -223,22 +223,22 @@
         <v>10</v>
       </c>
       <c r="B5" s="0">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C5" s="0">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D5" s="0">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E5" s="0">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F5" s="0">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="G5" s="0">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -246,22 +246,22 @@
         <v>11</v>
       </c>
       <c r="B6" s="0">
+        <v>4</v>
+      </c>
+      <c r="C6" s="0">
+        <v>12</v>
+      </c>
+      <c r="D6" s="0">
+        <v>5</v>
+      </c>
+      <c r="E6" s="0">
+        <v>1</v>
+      </c>
+      <c r="F6" s="0">
         <v>10</v>
       </c>
-      <c r="C6" s="0">
-        <v>20</v>
-      </c>
-      <c r="D6" s="0">
-        <v>30</v>
-      </c>
-      <c r="E6" s="0">
-        <v>40</v>
-      </c>
-      <c r="F6" s="0">
-        <v>50</v>
-      </c>
       <c r="G6" s="0">
-        <v>60</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -269,22 +269,22 @@
         <v>12</v>
       </c>
       <c r="B7" s="0">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C7" s="0">
         <v>20</v>
       </c>
       <c r="D7" s="0">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E7" s="0">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F7" s="0">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="G7" s="0">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -292,22 +292,22 @@
         <v>13</v>
       </c>
       <c r="B8" s="0">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C8" s="0">
-        <v>20</v>
+        <v>192</v>
       </c>
       <c r="D8" s="0">
-        <v>30</v>
+        <v>342</v>
       </c>
       <c r="E8" s="0">
-        <v>40</v>
+        <v>268</v>
       </c>
       <c r="F8" s="0">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G8" s="0">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -315,22 +315,22 @@
         <v>14</v>
       </c>
       <c r="B9" s="0">
+        <v>15</v>
+      </c>
+      <c r="C9" s="0">
         <v>10</v>
       </c>
-      <c r="C9" s="0">
-        <v>20</v>
-      </c>
       <c r="D9" s="0">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E9" s="0">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F9" s="0">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="G9" s="0">
-        <v>60</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -338,22 +338,22 @@
         <v>15</v>
       </c>
       <c r="B10" s="0">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C10" s="0">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10" s="0">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E10" s="0">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F10" s="0">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G10" s="0">
-        <v>60</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -361,22 +361,22 @@
         <v>16</v>
       </c>
       <c r="B11" s="0">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C11" s="0">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D11" s="0">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E11" s="0">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F11" s="0">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G11" s="0">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -384,22 +384,22 @@
         <v>17</v>
       </c>
       <c r="B12" s="0">
+        <v>8</v>
+      </c>
+      <c r="C12" s="0">
+        <v>14</v>
+      </c>
+      <c r="D12" s="0">
+        <v>14</v>
+      </c>
+      <c r="E12" s="0">
+        <v>14</v>
+      </c>
+      <c r="F12" s="0">
         <v>10</v>
       </c>
-      <c r="C12" s="0">
-        <v>20</v>
-      </c>
-      <c r="D12" s="0">
-        <v>30</v>
-      </c>
-      <c r="E12" s="0">
-        <v>40</v>
-      </c>
-      <c r="F12" s="0">
-        <v>50</v>
-      </c>
       <c r="G12" s="0">
-        <v>60</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -407,22 +407,22 @@
         <v>18</v>
       </c>
       <c r="B13" s="0">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C13" s="0">
         <v>20</v>
       </c>
       <c r="D13" s="0">
+        <v>18</v>
+      </c>
+      <c r="E13" s="0">
         <v>30</v>
       </c>
-      <c r="E13" s="0">
-        <v>40</v>
-      </c>
       <c r="F13" s="0">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G13" s="0">
-        <v>60</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/PesquisaOperacional.Gurobi.Core/Data/output.xlsx
+++ b/PesquisaOperacional.Gurobi.Core/Data/output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Produto</t>
   </si>
@@ -74,10 +74,40 @@
     <t>Bomba</t>
   </si>
   <si>
+    <t>Não</t>
+  </si>
+  <si>
     <t>Entremet</t>
   </si>
   <si>
     <t>Sonho</t>
+  </si>
+  <si>
+    <t>Torta</t>
+  </si>
+  <si>
+    <t>Alfajor</t>
+  </si>
+  <si>
+    <t>Carolina</t>
+  </si>
+  <si>
+    <t>Cocada</t>
+  </si>
+  <si>
+    <t>Macaron</t>
+  </si>
+  <si>
+    <t>Brigadeiro</t>
+  </si>
+  <si>
+    <t>Tartalete</t>
+  </si>
+  <si>
+    <t>Palha italiana</t>
+  </si>
+  <si>
+    <t>Mono porção</t>
   </si>
 </sst>
 </file>
@@ -129,7 +159,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -199,176 +229,707 @@
         <v>19</v>
       </c>
       <c r="B2" s="0">
-        <v>117</v>
+        <v>24</v>
       </c>
       <c r="C2" s="0">
-        <v>17</v>
-      </c>
-      <c r="D2" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="E2" s="0">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="F2" s="0">
-        <v>0</v>
-      </c>
-      <c r="G2" s="0" t="b">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="H2" s="0">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="I2" s="0">
-        <v>29</v>
-      </c>
-      <c r="J2" s="0" t="b">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="K2" s="0">
         <v>0</v>
       </c>
       <c r="L2" s="0">
-        <v>11</v>
-      </c>
-      <c r="M2" s="0" t="b">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N2" s="0">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="O2" s="0">
-        <v>9</v>
-      </c>
-      <c r="P2" s="0" t="b">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="Q2" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R2" s="0">
         <v>0</v>
       </c>
-      <c r="S2" s="0" t="b">
-        <v>0</v>
+      <c r="S2" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0">
-        <v>131</v>
+        <v>15</v>
       </c>
       <c r="C3" s="0">
-        <v>119</v>
-      </c>
-      <c r="D3" s="0" t="b">
+        <v>3</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="0">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="0">
+        <v>9</v>
+      </c>
+      <c r="I3" s="0">
+        <v>7</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="0">
+        <v>0</v>
+      </c>
+      <c r="L3" s="0">
         <v>1</v>
       </c>
-      <c r="E3" s="0">
-        <v>181</v>
-      </c>
-      <c r="F3" s="0">
-        <v>0</v>
-      </c>
-      <c r="G3" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="0">
-        <v>2</v>
-      </c>
-      <c r="I3" s="0">
-        <v>0</v>
-      </c>
-      <c r="J3" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" s="0">
-        <v>6</v>
-      </c>
-      <c r="L3" s="0">
-        <v>0</v>
-      </c>
-      <c r="M3" s="0" t="b">
-        <v>0</v>
+      <c r="M3" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N3" s="0">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O3" s="0">
-        <v>3</v>
-      </c>
-      <c r="P3" s="0" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="Q3" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R3" s="0">
         <v>0</v>
       </c>
-      <c r="S3" s="0" t="b">
-        <v>0</v>
+      <c r="S3" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0">
+        <v>20</v>
+      </c>
+      <c r="C4" s="0">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="0">
+        <v>100</v>
+      </c>
+      <c r="F4" s="0">
+        <v>80</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0">
+        <v>60</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="0">
+        <v>0</v>
+      </c>
+      <c r="L4" s="0">
+        <v>40</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="0">
+        <v>0</v>
+      </c>
+      <c r="O4" s="0">
+        <v>20</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="0">
+        <v>0</v>
+      </c>
+      <c r="R4" s="0">
+        <v>0</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="0">
-        <v>3</v>
-      </c>
-      <c r="D4" s="0" t="b">
+      <c r="B5" s="0">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0">
+        <v>2</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="0">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="0">
+        <v>8</v>
+      </c>
+      <c r="I5" s="0">
+        <v>6</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="0">
+        <v>0</v>
+      </c>
+      <c r="L5" s="0">
+        <v>5</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="0">
+        <v>0</v>
+      </c>
+      <c r="O5" s="0">
         <v>1</v>
       </c>
-      <c r="E4" s="0">
-        <v>17</v>
-      </c>
-      <c r="F4" s="0">
-        <v>0</v>
-      </c>
-      <c r="G4" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="0">
-        <v>262</v>
-      </c>
-      <c r="I4" s="0">
-        <v>242</v>
-      </c>
-      <c r="J4" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" s="0">
-        <v>310</v>
-      </c>
-      <c r="L4" s="0">
-        <v>532</v>
-      </c>
-      <c r="M4" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="N4" s="0">
-        <v>276</v>
-      </c>
-      <c r="O4" s="0">
-        <v>788</v>
-      </c>
-      <c r="P4" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="0">
-        <v>151</v>
-      </c>
-      <c r="R4" s="0">
-        <v>0</v>
-      </c>
-      <c r="S4" s="0" t="b">
-        <v>0</v>
+      <c r="P5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="0">
+        <v>0</v>
+      </c>
+      <c r="R5" s="0">
+        <v>0</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="0">
+        <v>16</v>
+      </c>
+      <c r="C6" s="0">
+        <v>12</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="0">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="0">
+        <v>16</v>
+      </c>
+      <c r="I6" s="0">
+        <v>11</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="0">
+        <v>0</v>
+      </c>
+      <c r="L6" s="0">
+        <v>10</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="0">
+        <v>0</v>
+      </c>
+      <c r="O6" s="0">
+        <v>0</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="0">
+        <v>6</v>
+      </c>
+      <c r="R6" s="0">
+        <v>0</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="0">
+        <v>5</v>
+      </c>
+      <c r="C7" s="0">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="0">
+        <v>81</v>
+      </c>
+      <c r="F7" s="0">
+        <v>61</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="0">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0">
+        <v>53</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="0">
+        <v>0</v>
+      </c>
+      <c r="L7" s="0">
+        <v>33</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="0">
+        <v>0</v>
+      </c>
+      <c r="O7" s="0">
+        <v>20</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="0">
+        <v>0</v>
+      </c>
+      <c r="R7" s="0">
+        <v>0</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="0">
+        <v>20</v>
+      </c>
+      <c r="C8" s="0">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="0">
+        <v>94</v>
+      </c>
+      <c r="F8" s="0">
+        <v>84</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="0">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0">
+        <v>67</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="0">
+        <v>0</v>
+      </c>
+      <c r="L8" s="0">
+        <v>37</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="0">
+        <v>0</v>
+      </c>
+      <c r="O8" s="0">
+        <v>12</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="0">
+        <v>0</v>
+      </c>
+      <c r="R8" s="0">
+        <v>0</v>
+      </c>
+      <c r="S8" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="0">
+        <v>23</v>
+      </c>
+      <c r="C9" s="0">
+        <v>8</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="0">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0">
+        <v>0</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="0">
+        <v>55</v>
+      </c>
+      <c r="I9" s="0">
+        <v>43</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="0">
+        <v>0</v>
+      </c>
+      <c r="L9" s="0">
+        <v>23</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="0">
+        <v>0</v>
+      </c>
+      <c r="O9" s="0">
+        <v>6</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="0">
+        <v>0</v>
+      </c>
+      <c r="R9" s="0">
+        <v>0</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="0">
+        <v>36</v>
+      </c>
+      <c r="C10" s="0">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="0">
+        <v>90</v>
+      </c>
+      <c r="F10" s="0">
+        <v>74</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="0">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0">
+        <v>54</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="0">
+        <v>0</v>
+      </c>
+      <c r="L10" s="0">
+        <v>40</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="0">
+        <v>0</v>
+      </c>
+      <c r="O10" s="0">
+        <v>18</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="0">
+        <v>0</v>
+      </c>
+      <c r="R10" s="0">
+        <v>0</v>
+      </c>
+      <c r="S10" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="0">
+        <v>56</v>
+      </c>
+      <c r="C11" s="0">
+        <v>24</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="0">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0">
+        <v>0</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="0">
+        <v>32</v>
+      </c>
+      <c r="I11" s="0">
+        <v>16</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="0">
+        <v>0</v>
+      </c>
+      <c r="L11" s="0">
+        <v>0</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="0">
+        <v>32</v>
+      </c>
+      <c r="O11" s="0">
+        <v>0</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="0">
+        <v>12</v>
+      </c>
+      <c r="R11" s="0">
+        <v>0</v>
+      </c>
+      <c r="S11" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="0">
+        <v>8</v>
+      </c>
+      <c r="C12" s="0">
+        <v>0</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="0">
+        <v>42</v>
+      </c>
+      <c r="F12" s="0">
+        <v>36</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="0">
+        <v>0</v>
+      </c>
+      <c r="I12" s="0">
+        <v>24</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="0">
+        <v>0</v>
+      </c>
+      <c r="L12" s="0">
+        <v>16</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="0">
+        <v>0</v>
+      </c>
+      <c r="O12" s="0">
+        <v>6</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="0">
+        <v>0</v>
+      </c>
+      <c r="R12" s="0">
+        <v>0</v>
+      </c>
+      <c r="S12" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="0">
+        <v>67</v>
+      </c>
+      <c r="C13" s="0">
+        <v>31</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="0">
+        <v>19</v>
+      </c>
+      <c r="F13" s="0">
+        <v>30</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="0">
+        <v>72</v>
+      </c>
+      <c r="I13" s="0">
+        <v>84</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="0">
+        <v>0</v>
+      </c>
+      <c r="L13" s="0">
+        <v>54</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="0">
+        <v>0</v>
+      </c>
+      <c r="O13" s="0">
+        <v>12</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="0">
+        <v>0</v>
+      </c>
+      <c r="R13" s="0">
+        <v>0</v>
+      </c>
+      <c r="S13" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
